--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3503.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3503.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191091555693751</v>
+        <v>3.461107730865479</v>
       </c>
       <c r="B1">
-        <v>3.504988138899355</v>
+        <v>2.940497636795044</v>
       </c>
       <c r="C1">
-        <v>6.274872458430417</v>
+        <v>2.585555791854858</v>
       </c>
       <c r="D1">
-        <v>2.222915122012772</v>
+        <v>2.385602474212646</v>
       </c>
       <c r="E1">
-        <v>1.39090525105705</v>
+        <v>1.742071151733398</v>
       </c>
     </row>
   </sheetData>
